--- a/biology/Botanique/Rhynchocalycaceae/Rhynchocalycaceae.xlsx
+++ b/biology/Botanique/Rhynchocalycaceae/Rhynchocalycaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Selon la classification phylogénétique APG (1998)[1] et la classification phylogénétique APG II (2003)[2], la famille des Rhynchocalycacées regroupe des plantes dicotylédones ; elle comprend une espèce : Rhynchocalyx lawsonioides.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Selon la classification phylogénétique APG (1998) et la classification phylogénétique APG II (2003), la famille des Rhynchocalycacées regroupe des plantes dicotylédones ; elle comprend une espèce : Rhynchocalyx lawsonioides.
 Ce sont de petits arbres des régions subtropicales, originaires d'Afrique du Sud.
 REDIRECT Penaeaceae</t>
         </is>
@@ -512,10 +524,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce était autrefois placée dans la famille des Lythracées.
-En classification phylogénétique APG III (2009)[3] cette famille est invalide ; cette espèce est incorporée dans la famille Penaeaceae.
+En classification phylogénétique APG III (2009) cette famille est invalide ; cette espèce est incorporée dans la famille Penaeaceae.
 </t>
         </is>
       </c>
